--- a/data/trans_orig/P43B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Habitat-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>24701</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16364</v>
+        <v>15502</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36997</v>
+        <v>37251</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07575745416590106</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05018699882230686</v>
+        <v>0.04754399482985316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1134696694362728</v>
+        <v>0.1142477125408719</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>301350</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>289054</v>
+        <v>288800</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309687</v>
+        <v>310549</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9242425458340989</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8865303305637272</v>
+        <v>0.885752287459128</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9498130011776931</v>
+        <v>0.9524560051701468</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>53004</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40557</v>
+        <v>40223</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68794</v>
+        <v>70911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1166620470435983</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08926726882531839</v>
+        <v>0.08853175224970093</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1514169170901059</v>
+        <v>0.1560756603884598</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>401333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>385543</v>
+        <v>383426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413780</v>
+        <v>414114</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8833379529564017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8485830829098941</v>
+        <v>0.8439243396115402</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9107327311746817</v>
+        <v>0.911468247750299</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>70167</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54537</v>
+        <v>54848</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88891</v>
+        <v>86564</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1954631848856893</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1519239500970053</v>
+        <v>0.1527892444389046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.24762202864466</v>
+        <v>0.2411412278018037</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>288811</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270087</v>
+        <v>272414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304441</v>
+        <v>304130</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8045368151143107</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7523779713553395</v>
+        <v>0.7588587721981963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8480760499029943</v>
+        <v>0.8472107555610955</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>86164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69032</v>
+        <v>69987</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105025</v>
+        <v>105047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1736312847393096</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1391090498663978</v>
+        <v>0.1410340712429556</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2116391760296463</v>
+        <v>0.2116834499891628</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>410081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>391220</v>
+        <v>391198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>427213</v>
+        <v>426258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8263687152606904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7883608239703539</v>
+        <v>0.7883165500108372</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8608909501336027</v>
+        <v>0.8589659287570444</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>234035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>203096</v>
+        <v>206405</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>262159</v>
+        <v>264379</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.143087388190311</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1241712633064915</v>
+        <v>0.1261947217185073</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1602819018684755</v>
+        <v>0.1616391906634115</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>1401576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1373452</v>
+        <v>1371232</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1432515</v>
+        <v>1429206</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.856912611809689</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8397180981315246</v>
+        <v>0.8383608093365885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8758287366935086</v>
+        <v>0.8738052782814929</v>
       </c>
     </row>
     <row r="18">
@@ -1196,19 +1196,19 @@
         <v>27101</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18123</v>
+        <v>17470</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38984</v>
+        <v>38513</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08378930598692179</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05603172034399732</v>
+        <v>0.05401165751350218</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.120527042183405</v>
+        <v>0.1190724813658416</v>
       </c>
     </row>
     <row r="5">
@@ -1225,19 +1225,19 @@
         <v>296343</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284460</v>
+        <v>284931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>305321</v>
+        <v>305974</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9162106940130782</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.879472957816595</v>
+        <v>0.8809275186341575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9439682796560027</v>
+        <v>0.9459883424864973</v>
       </c>
     </row>
     <row r="6">
@@ -1287,19 +1287,19 @@
         <v>55246</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41646</v>
+        <v>43130</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69541</v>
+        <v>71797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1092049771313549</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08232129954232263</v>
+        <v>0.08525570386446737</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1374614398948712</v>
+        <v>0.1419210246728249</v>
       </c>
     </row>
     <row r="8">
@@ -1316,19 +1316,19 @@
         <v>450648</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>436353</v>
+        <v>434097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>464248</v>
+        <v>462764</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8907950228686451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8625385601051287</v>
+        <v>0.8580789753271748</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9176787004576774</v>
+        <v>0.9147442961355325</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>35082</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25258</v>
+        <v>24448</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47647</v>
+        <v>48011</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1041534205434659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07498582855564452</v>
+        <v>0.0725805096465803</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1414546127934722</v>
+        <v>0.1425363025497046</v>
       </c>
     </row>
     <row r="11">
@@ -1407,19 +1407,19 @@
         <v>301751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289186</v>
+        <v>288822</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311575</v>
+        <v>312385</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8958465794565341</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8585453872065278</v>
+        <v>0.8574636974502957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9250141714443558</v>
+        <v>0.9274194903534196</v>
       </c>
     </row>
     <row r="12">
@@ -1469,19 +1469,19 @@
         <v>91999</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74651</v>
+        <v>74968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112788</v>
+        <v>112441</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1752895015731361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.142235458089751</v>
+        <v>0.142839751645017</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.214900484988043</v>
+        <v>0.214239896739399</v>
       </c>
     </row>
     <row r="14">
@@ -1498,19 +1498,19 @@
         <v>432840</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>412051</v>
+        <v>412398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>450188</v>
+        <v>449871</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8247104984268639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.785099515011957</v>
+        <v>0.7857601032606011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.857764541910249</v>
+        <v>0.8571602483549829</v>
       </c>
     </row>
     <row r="15">
@@ -1560,19 +1560,19 @@
         <v>209428</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181962</v>
+        <v>183116</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>238780</v>
+        <v>239674</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1238481036440404</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1076057646784511</v>
+        <v>0.108287703977103</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1412058354247437</v>
+        <v>0.1417342801411673</v>
       </c>
     </row>
     <row r="17">
@@ -1589,19 +1589,19 @@
         <v>1481582</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1452230</v>
+        <v>1451336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1509048</v>
+        <v>1507894</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8761518963559596</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8587941645752558</v>
+        <v>0.8582657198588326</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8923942353215487</v>
+        <v>0.891712296022897</v>
       </c>
     </row>
     <row r="18">
@@ -1769,19 +1769,19 @@
         <v>27967</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21198</v>
+        <v>20665</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36644</v>
+        <v>37207</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09669154163414517</v>
+        <v>0.09669154163414515</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07328816535493336</v>
+        <v>0.07144562439691549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1266888209950938</v>
+        <v>0.1286351876610698</v>
       </c>
     </row>
     <row r="5">
@@ -1798,19 +1798,19 @@
         <v>261274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>252597</v>
+        <v>252034</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268043</v>
+        <v>268576</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9033084583658549</v>
+        <v>0.9033084583658547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.873311179004906</v>
+        <v>0.87136481233893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9267118346450666</v>
+        <v>0.9285543756030844</v>
       </c>
     </row>
     <row r="6">
@@ -1860,19 +1860,19 @@
         <v>57892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47060</v>
+        <v>46521</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71073</v>
+        <v>71301</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.144284932350914</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1172876208000058</v>
+        <v>0.1159437630983676</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1771337127157366</v>
+        <v>0.177702395954815</v>
       </c>
     </row>
     <row r="8">
@@ -1889,19 +1889,19 @@
         <v>343345</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>330164</v>
+        <v>329936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>354177</v>
+        <v>354716</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8557150676490861</v>
+        <v>0.855715067649086</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8228662872842629</v>
+        <v>0.8222976040451849</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8827123791999941</v>
+        <v>0.8840562369016324</v>
       </c>
     </row>
     <row r="9">
@@ -1951,19 +1951,19 @@
         <v>71347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60734</v>
+        <v>59120</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85337</v>
+        <v>82965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2402541270394938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.204516664658225</v>
+        <v>0.1990823101513087</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.287362538309947</v>
+        <v>0.2793759136332716</v>
       </c>
     </row>
     <row r="11">
@@ -1980,19 +1980,19 @@
         <v>225618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>211628</v>
+        <v>214000</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236231</v>
+        <v>237845</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7597458729605063</v>
+        <v>0.7597458729605062</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.712637461690053</v>
+        <v>0.7206240863667283</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7954833353417748</v>
+        <v>0.8009176898486914</v>
       </c>
     </row>
     <row r="12">
@@ -2042,19 +2042,19 @@
         <v>113118</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>98256</v>
+        <v>98609</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129014</v>
+        <v>130210</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2366592124317529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2055656980411638</v>
+        <v>0.2063035303083374</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2699166667723896</v>
+        <v>0.2724187316202232</v>
       </c>
     </row>
     <row r="14">
@@ -2071,19 +2071,19 @@
         <v>364860</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>348964</v>
+        <v>347768</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>379722</v>
+        <v>379369</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7633407875682472</v>
+        <v>0.7633407875682471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7300833332276104</v>
+        <v>0.7275812683797768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7944343019588364</v>
+        <v>0.7936964696916627</v>
       </c>
     </row>
     <row r="15">
@@ -2133,19 +2133,19 @@
         <v>270325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>245082</v>
+        <v>249605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>294259</v>
+        <v>296448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1844688818003775</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1672430826070092</v>
+        <v>0.1703294726708511</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2008015802258782</v>
+        <v>0.2022952340407483</v>
       </c>
     </row>
     <row r="17">
@@ -2162,19 +2162,19 @@
         <v>1195097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1171163</v>
+        <v>1168974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1220340</v>
+        <v>1215817</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8155311181996225</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7991984197741219</v>
+        <v>0.7977047659592513</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.832756917392991</v>
+        <v>0.8296705273291487</v>
       </c>
     </row>
     <row r="18">
